--- a/Data/Data_2013-2022.xlsx
+++ b/Data/Data_2013-2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Violeau Pierre\Data_Science\Breakaway_win\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Violeau Pierre\Data_Science\Breakaway_win\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0395C78F-D5D9-456C-BE84-088C21BEAABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E7601A-BD49-435A-A258-278A75AA8262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{0BE2815D-0C32-47E9-B1D0-DB7C753D67D5}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{0BE2815D-0C32-47E9-B1D0-DB7C753D67D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773C7479-C1CE-46D9-B05B-52E9691C0D76}">
   <dimension ref="A1:K563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="C564" sqref="C564"/>
+    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
+      <selection activeCell="K564" sqref="K564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3787,6 +3787,9 @@
       <c r="J93">
         <v>988</v>
       </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -3819,6 +3822,9 @@
       <c r="J94">
         <v>1771</v>
       </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -3851,6 +3857,9 @@
       <c r="J95">
         <v>3428</v>
       </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -3883,8 +3892,11 @@
       <c r="J96">
         <v>2237</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -3915,8 +3927,11 @@
       <c r="J97">
         <v>3307</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -3947,8 +3962,11 @@
       <c r="J98">
         <v>1023</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -3979,8 +3997,11 @@
       <c r="J99">
         <v>3248</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -4011,8 +4032,11 @@
       <c r="J100">
         <v>4034</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -4043,8 +4067,11 @@
       <c r="J101">
         <v>4133</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -4075,8 +4102,11 @@
       <c r="J102">
         <v>2027</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -4107,8 +4137,11 @@
       <c r="J103">
         <v>874</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -4139,8 +4172,11 @@
       <c r="J104">
         <v>429</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -4171,8 +4207,11 @@
       <c r="J105">
         <v>4477</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -4203,8 +4242,11 @@
       <c r="J106">
         <v>4112</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -4235,8 +4277,11 @@
       <c r="J107">
         <v>2040</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -4267,8 +4312,11 @@
       <c r="J108">
         <v>2314</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>16</v>
       </c>
@@ -4299,8 +4347,11 @@
       <c r="J109">
         <v>5216</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -4331,8 +4382,11 @@
       <c r="J110">
         <v>4254</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>16</v>
       </c>
@@ -4363,8 +4417,11 @@
       <c r="J111">
         <v>897</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -4395,8 +4452,11 @@
       <c r="J112">
         <v>2242</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>17</v>
       </c>
@@ -4427,8 +4487,11 @@
       <c r="J113">
         <v>1790</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>17</v>
       </c>
@@ -4459,8 +4522,11 @@
       <c r="J114">
         <v>2995</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>17</v>
       </c>
@@ -4491,8 +4557,11 @@
       <c r="J115">
         <v>2056</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>17</v>
       </c>
@@ -4523,8 +4592,11 @@
       <c r="J116">
         <v>2881</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>17</v>
       </c>
@@ -4555,8 +4627,11 @@
       <c r="J117">
         <v>2626</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>17</v>
       </c>
@@ -4587,8 +4662,11 @@
       <c r="J118">
         <v>1998</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>17</v>
       </c>
@@ -4619,8 +4697,11 @@
       <c r="J119">
         <v>160</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>17</v>
       </c>
@@ -4651,8 +4732,11 @@
       <c r="J120">
         <v>476</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>17</v>
       </c>
@@ -4683,8 +4767,11 @@
       <c r="J121">
         <v>1918</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>17</v>
       </c>
@@ -4715,8 +4802,11 @@
       <c r="J122">
         <v>5187</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>17</v>
       </c>
@@ -4747,8 +4837,11 @@
       <c r="J123">
         <v>4187</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -4779,8 +4872,11 @@
       <c r="J124">
         <v>3122</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>17</v>
       </c>
@@ -4811,8 +4907,11 @@
       <c r="J125">
         <v>5207</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>17</v>
       </c>
@@ -4843,8 +4942,11 @@
       <c r="J126">
         <v>3482</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>17</v>
       </c>
@@ -4875,8 +4977,11 @@
       <c r="J127">
         <v>1478</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>17</v>
       </c>
@@ -4907,8 +5012,11 @@
       <c r="J128">
         <v>3169</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -4939,8 +5047,11 @@
       <c r="J129">
         <v>5754</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>18</v>
       </c>
@@ -4971,8 +5082,11 @@
       <c r="J130">
         <v>2359</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>18</v>
       </c>
@@ -5003,8 +5117,11 @@
       <c r="J131">
         <v>3516</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>18</v>
       </c>
@@ -5035,8 +5152,11 @@
       <c r="J132">
         <v>1791</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -5067,8 +5187,11 @@
       <c r="J133">
         <v>3700</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -5099,8 +5222,11 @@
       <c r="J134">
         <v>2821</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>18</v>
       </c>
@@ -5131,8 +5257,11 @@
       <c r="J135">
         <v>450</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>18</v>
       </c>
@@ -5163,8 +5292,11 @@
       <c r="J136">
         <v>2197</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>18</v>
       </c>
@@ -5195,8 +5327,11 @@
       <c r="J137">
         <v>4544</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>18</v>
       </c>
@@ -5227,8 +5362,11 @@
       <c r="J138">
         <v>2057</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>18</v>
       </c>
@@ -5259,8 +5397,11 @@
       <c r="J139">
         <v>1197</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>18</v>
       </c>
@@ -5291,8 +5432,11 @@
       <c r="J140">
         <v>3815</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>18</v>
       </c>
@@ -5323,8 +5467,11 @@
       <c r="J141">
         <v>827</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>18</v>
       </c>
@@ -5355,8 +5502,11 @@
       <c r="J142">
         <v>4515</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>18</v>
       </c>
@@ -5387,8 +5537,11 @@
       <c r="J143">
         <v>4056</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>18</v>
       </c>
@@ -5419,8 +5572,11 @@
       <c r="J144">
         <v>5650</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>18</v>
       </c>
@@ -5451,8 +5607,11 @@
       <c r="J145">
         <v>5848</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>18</v>
       </c>
@@ -5483,8 +5642,11 @@
       <c r="J146">
         <v>406</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>18</v>
       </c>
@@ -5515,8 +5677,11 @@
       <c r="J147">
         <v>3716</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -5547,8 +5712,11 @@
       <c r="J148">
         <v>707</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -5579,8 +5747,11 @@
       <c r="J149">
         <v>1870</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -5611,8 +5782,11 @@
       <c r="J150">
         <v>3138</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -5643,8 +5817,11 @@
       <c r="J151">
         <v>363</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>19</v>
       </c>
@@ -5675,8 +5852,11 @@
       <c r="J152">
         <v>3595</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -5707,8 +5887,11 @@
       <c r="J153">
         <v>1725</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -5739,8 +5922,11 @@
       <c r="J154">
         <v>3085</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -5771,8 +5957,11 @@
       <c r="J155">
         <v>3503</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>19</v>
       </c>
@@ -5803,8 +5992,11 @@
       <c r="J156">
         <v>1460</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>19</v>
       </c>
@@ -5835,8 +6027,11 @@
       <c r="J157">
         <v>2364</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>19</v>
       </c>
@@ -5867,8 +6062,11 @@
       <c r="J158">
         <v>4433</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -5899,8 +6097,11 @@
       <c r="J159">
         <v>199</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -5931,8 +6132,11 @@
       <c r="J160">
         <v>3580</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -5963,8 +6167,11 @@
       <c r="J161">
         <v>1682</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -5995,8 +6202,11 @@
       <c r="J162">
         <v>3942</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -6027,8 +6237,11 @@
       <c r="J163">
         <v>3703</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -6059,8 +6272,11 @@
       <c r="J164">
         <v>1398</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -6091,8 +6307,11 @@
       <c r="J165">
         <v>2811</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -6123,8 +6342,11 @@
       <c r="J166">
         <v>3867</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>20</v>
       </c>
@@ -6155,8 +6377,11 @@
       <c r="J167">
         <v>1390</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>20</v>
       </c>
@@ -6187,8 +6412,11 @@
       <c r="J168">
         <v>1150</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -6219,8 +6447,11 @@
       <c r="J169">
         <v>3626</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>20</v>
       </c>
@@ -6251,8 +6482,11 @@
       <c r="J170">
         <v>1968</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>20</v>
       </c>
@@ -6283,8 +6517,11 @@
       <c r="J171">
         <v>1498</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -6315,8 +6552,11 @@
       <c r="J172">
         <v>4730</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>20</v>
       </c>
@@ -6347,8 +6587,11 @@
       <c r="J173">
         <v>2243</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -6379,8 +6622,11 @@
       <c r="J174">
         <v>5080</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -6411,8 +6657,11 @@
       <c r="J175">
         <v>1764</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -6442,6 +6691,9 @@
       </c>
       <c r="J176">
         <v>369</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -6475,6 +6727,9 @@
       <c r="J177">
         <v>2867</v>
       </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
@@ -6507,6 +6762,9 @@
       <c r="J178">
         <v>1817</v>
       </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
@@ -6539,6 +6797,9 @@
       <c r="J179">
         <v>3167</v>
       </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
@@ -6571,6 +6832,9 @@
       <c r="J180">
         <v>4019</v>
       </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
@@ -6603,6 +6867,9 @@
       <c r="J181">
         <v>5268</v>
       </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
@@ -6635,6 +6902,9 @@
       <c r="J182">
         <v>3950</v>
       </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
@@ -6667,6 +6937,9 @@
       <c r="J183">
         <v>1219</v>
       </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
@@ -6699,6 +6972,9 @@
       <c r="J184">
         <v>3489</v>
       </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
@@ -6731,6 +7007,9 @@
       <c r="J185">
         <v>4718</v>
       </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
@@ -6868,6 +7147,9 @@
       <c r="J189">
         <v>2775</v>
       </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
@@ -6900,6 +7182,9 @@
       <c r="J190">
         <v>837</v>
       </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
@@ -6932,6 +7217,9 @@
       <c r="J191">
         <v>2675</v>
       </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
@@ -6964,8 +7252,11 @@
       <c r="J192">
         <v>3839</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -6996,8 +7287,11 @@
       <c r="J193">
         <v>4411</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -7028,8 +7322,11 @@
       <c r="J194">
         <v>1762</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -7060,8 +7357,11 @@
       <c r="J195">
         <v>1425</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -7092,8 +7392,11 @@
       <c r="J196">
         <v>1036</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -7124,8 +7427,11 @@
       <c r="J197">
         <v>2158</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -7156,8 +7462,11 @@
       <c r="J198">
         <v>4146</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>21</v>
       </c>
@@ -7188,8 +7497,11 @@
       <c r="J199">
         <v>3073</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>21</v>
       </c>
@@ -7220,8 +7532,11 @@
       <c r="J200">
         <v>4789</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>21</v>
       </c>
@@ -7252,8 +7567,11 @@
       <c r="J201">
         <v>5567</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>21</v>
       </c>
@@ -7284,8 +7602,11 @@
       <c r="J202">
         <v>3909</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>21</v>
       </c>
@@ -7316,8 +7637,11 @@
       <c r="J203">
         <v>766</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>22</v>
       </c>
@@ -7348,8 +7672,11 @@
       <c r="J204">
         <v>2092</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>22</v>
       </c>
@@ -7380,8 +7707,11 @@
       <c r="J205">
         <v>3347</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>22</v>
       </c>
@@ -7412,8 +7742,11 @@
       <c r="J206">
         <v>834</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>22</v>
       </c>
@@ -7444,8 +7777,11 @@
       <c r="J207">
         <v>1118</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>22</v>
       </c>
@@ -7476,8 +7812,11 @@
       <c r="J208">
         <v>475</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>22</v>
       </c>
@@ -7508,8 +7847,11 @@
       <c r="J209">
         <v>1422</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>22</v>
       </c>
@@ -7540,8 +7882,11 @@
       <c r="J210">
         <v>2076</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>22</v>
       </c>
@@ -7572,8 +7917,11 @@
       <c r="J211">
         <v>1872</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>22</v>
       </c>
@@ -7604,8 +7952,11 @@
       <c r="J212">
         <v>3373</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>22</v>
       </c>
@@ -7636,8 +7987,11 @@
       <c r="J213">
         <v>3906</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>22</v>
       </c>
@@ -7668,8 +8022,11 @@
       <c r="J214">
         <v>2711</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>22</v>
       </c>
@@ -7700,8 +8057,11 @@
       <c r="J215">
         <v>2530</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>22</v>
       </c>
@@ -7732,8 +8092,11 @@
       <c r="J216">
         <v>3865</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>22</v>
       </c>
@@ -7764,8 +8127,11 @@
       <c r="J217">
         <v>4838</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>22</v>
       </c>
@@ -7796,8 +8162,11 @@
       <c r="J218">
         <v>1675</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>22</v>
       </c>
@@ -7828,8 +8197,11 @@
       <c r="J219">
         <v>4047</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>22</v>
       </c>
@@ -7860,8 +8232,11 @@
       <c r="J220">
         <v>3810</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>22</v>
       </c>
@@ -7892,8 +8267,11 @@
       <c r="J221">
         <v>3748</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>22</v>
       </c>
@@ -7924,8 +8302,11 @@
       <c r="J222">
         <v>1659</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>22</v>
       </c>
@@ -7956,8 +8337,11 @@
       <c r="J223">
         <v>805</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>23</v>
       </c>
@@ -7988,8 +8372,11 @@
       <c r="J224">
         <v>241</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>23</v>
       </c>
@@ -8020,8 +8407,11 @@
       <c r="J225">
         <v>1435</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>23</v>
       </c>
@@ -8052,8 +8442,11 @@
       <c r="J226">
         <v>1552</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>23</v>
       </c>
@@ -8084,8 +8477,11 @@
       <c r="J227">
         <v>1606</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>23</v>
       </c>
@@ -8116,8 +8512,11 @@
       <c r="J228">
         <v>1694</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>23</v>
       </c>
@@ -8148,8 +8547,11 @@
       <c r="J229">
         <v>1694</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>23</v>
       </c>
@@ -8180,8 +8582,11 @@
       <c r="J230">
         <v>2057</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>23</v>
       </c>
@@ -8212,8 +8617,11 @@
       <c r="J231">
         <v>2655</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>23</v>
       </c>
@@ -8244,8 +8652,11 @@
       <c r="J232">
         <v>4099</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>23</v>
       </c>
@@ -8276,8 +8687,11 @@
       <c r="J233">
         <v>4948</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>23</v>
       </c>
@@ -8308,8 +8722,11 @@
       <c r="J234">
         <v>2299</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>23</v>
       </c>
@@ -8340,8 +8757,11 @@
       <c r="J235">
         <v>2772</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>23</v>
       </c>
@@ -8372,8 +8792,11 @@
       <c r="J236">
         <v>1993</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>23</v>
       </c>
@@ -8404,8 +8827,11 @@
       <c r="J237">
         <v>2322</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>23</v>
       </c>
@@ -8436,8 +8862,11 @@
       <c r="J238">
         <v>4208</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>23</v>
       </c>
@@ -8468,8 +8897,11 @@
       <c r="J239">
         <v>4424</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>23</v>
       </c>
@@ -8500,8 +8932,11 @@
       <c r="J240">
         <v>4545</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>23</v>
       </c>
@@ -8532,8 +8967,11 @@
       <c r="J241">
         <v>3164</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>23</v>
       </c>
@@ -8564,8 +9002,11 @@
       <c r="J242">
         <v>562</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>24</v>
       </c>
@@ -8596,8 +9037,11 @@
       <c r="J243">
         <v>1071</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>24</v>
       </c>
@@ -8628,8 +9072,11 @@
       <c r="J244">
         <v>1085</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>24</v>
       </c>
@@ -8660,8 +9107,11 @@
       <c r="J245">
         <v>1975</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>24</v>
       </c>
@@ -8692,8 +9142,11 @@
       <c r="J246">
         <v>1934</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>24</v>
       </c>
@@ -8724,8 +9177,11 @@
       <c r="J247">
         <v>4105</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>24</v>
       </c>
@@ -8756,8 +9212,11 @@
       <c r="J248">
         <v>2025</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>24</v>
       </c>
@@ -8788,8 +9247,11 @@
       <c r="J249">
         <v>2578</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>24</v>
       </c>
@@ -8820,8 +9282,11 @@
       <c r="J250">
         <v>4597</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>24</v>
       </c>
@@ -8852,8 +9317,11 @@
       <c r="J251">
         <v>4948</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>24</v>
       </c>
@@ -8884,8 +9352,11 @@
       <c r="J252">
         <v>2432</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>24</v>
       </c>
@@ -8916,8 +9387,11 @@
       <c r="J253">
         <v>1381</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>24</v>
       </c>
@@ -8948,8 +9422,11 @@
       <c r="J254">
         <v>2416</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>24</v>
       </c>
@@ -8980,8 +9457,11 @@
       <c r="J255">
         <v>1959</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>24</v>
       </c>
@@ -9012,8 +9492,11 @@
       <c r="J256">
         <v>4386</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>24</v>
       </c>
@@ -9044,8 +9527,11 @@
       <c r="J257">
         <v>1967</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>24</v>
       </c>
@@ -9076,8 +9562,11 @@
       <c r="J258">
         <v>3891</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>24</v>
       </c>
@@ -9108,8 +9597,11 @@
       <c r="J259">
         <v>4436</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>24</v>
       </c>
@@ -9140,8 +9632,11 @@
       <c r="J260">
         <v>4127</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>24</v>
       </c>
@@ -9172,8 +9667,11 @@
       <c r="J261">
         <v>713</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>25</v>
       </c>
@@ -9204,8 +9702,11 @@
       <c r="J262">
         <v>1278</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>25</v>
       </c>
@@ -9236,8 +9737,11 @@
       <c r="J263">
         <v>2706</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>25</v>
       </c>
@@ -9268,8 +9772,11 @@
       <c r="J264">
         <v>1404</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>25</v>
       </c>
@@ -9300,8 +9807,11 @@
       <c r="J265">
         <v>2348</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>25</v>
       </c>
@@ -9332,8 +9842,11 @@
       <c r="J266">
         <v>1735</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>25</v>
       </c>
@@ -9364,8 +9877,11 @@
       <c r="J267">
         <v>1578</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>25</v>
       </c>
@@ -9396,8 +9912,11 @@
       <c r="J268">
         <v>3591</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>25</v>
       </c>
@@ -9428,8 +9947,11 @@
       <c r="J269">
         <v>4696</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>25</v>
       </c>
@@ -9460,8 +9982,11 @@
       <c r="J270">
         <v>1407</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>25</v>
       </c>
@@ -9492,8 +10017,11 @@
       <c r="J271">
         <v>1163</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>25</v>
       </c>
@@ -9524,8 +10052,11 @@
       <c r="J272">
         <v>4903</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>25</v>
       </c>
@@ -9556,8 +10087,11 @@
       <c r="J273">
         <v>2856</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>25</v>
       </c>
@@ -9588,8 +10122,11 @@
       <c r="J274">
         <v>1786</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>25</v>
       </c>
@@ -9620,8 +10157,11 @@
       <c r="J275">
         <v>3164</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>25</v>
       </c>
@@ -9652,8 +10192,11 @@
       <c r="J276">
         <v>2033</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>25</v>
       </c>
@@ -9684,8 +10227,11 @@
       <c r="J277">
         <v>5064</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>25</v>
       </c>
@@ -9716,8 +10262,11 @@
       <c r="J278">
         <v>4059</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>25</v>
       </c>
@@ -9748,8 +10297,11 @@
       <c r="J279">
         <v>2613</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>25</v>
       </c>
@@ -9780,8 +10332,11 @@
       <c r="J280">
         <v>519</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>26</v>
       </c>
@@ -9812,8 +10367,11 @@
       <c r="J281">
         <v>454</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>26</v>
       </c>
@@ -9844,8 +10402,11 @@
       <c r="J282">
         <v>1395</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>26</v>
       </c>
@@ -9876,8 +10437,11 @@
       <c r="J283">
         <v>1155</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>26</v>
       </c>
@@ -9908,8 +10472,11 @@
       <c r="J284">
         <v>2704</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>26</v>
       </c>
@@ -9940,8 +10507,11 @@
       <c r="J285">
         <v>2027</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>26</v>
       </c>
@@ -9972,8 +10542,11 @@
       <c r="J286">
         <v>2255</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>26</v>
       </c>
@@ -10004,8 +10577,11 @@
       <c r="J287">
         <v>1284</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>26</v>
       </c>
@@ -10036,8 +10612,11 @@
       <c r="J288">
         <v>618</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>26</v>
       </c>
@@ -10068,8 +10647,11 @@
       <c r="J289">
         <v>4254</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>26</v>
       </c>
@@ -10100,8 +10682,11 @@
       <c r="J290">
         <v>4093</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>26</v>
       </c>
@@ -10132,8 +10717,11 @@
       <c r="J291">
         <v>5362</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>26</v>
       </c>
@@ -10164,8 +10752,11 @@
       <c r="J292">
         <v>1302</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>26</v>
       </c>
@@ -10196,8 +10787,11 @@
       <c r="J293">
         <v>3365</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>26</v>
       </c>
@@ -10228,8 +10822,11 @@
       <c r="J294">
         <v>2917</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>26</v>
       </c>
@@ -10260,8 +10857,11 @@
       <c r="J295">
         <v>3521</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>26</v>
       </c>
@@ -10292,8 +10892,11 @@
       <c r="J296">
         <v>3274</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>26</v>
       </c>
@@ -10324,8 +10927,11 @@
       <c r="J297">
         <v>1312</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>26</v>
       </c>
@@ -10356,8 +10962,11 @@
       <c r="J298">
         <v>5046</v>
       </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>26</v>
       </c>
@@ -10388,8 +10997,11 @@
       <c r="J299">
         <v>732</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>27</v>
       </c>
@@ -10420,8 +11032,11 @@
       <c r="J300">
         <v>1582</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>27</v>
       </c>
@@ -10452,8 +11067,11 @@
       <c r="J301">
         <v>2299</v>
       </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>27</v>
       </c>
@@ -10484,8 +11102,11 @@
       <c r="J302">
         <v>1555</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>27</v>
       </c>
@@ -10516,8 +11137,11 @@
       <c r="J303">
         <v>2325</v>
       </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>27</v>
       </c>
@@ -10548,8 +11172,11 @@
       <c r="J304">
         <v>3944</v>
       </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>27</v>
       </c>
@@ -10580,8 +11207,11 @@
       <c r="J305">
         <v>2367</v>
       </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>27</v>
       </c>
@@ -10612,8 +11242,11 @@
       <c r="J306">
         <v>3844</v>
       </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>27</v>
       </c>
@@ -10644,8 +11277,11 @@
       <c r="J307">
         <v>2717</v>
       </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>27</v>
       </c>
@@ -10676,8 +11312,11 @@
       <c r="J308">
         <v>3031</v>
       </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>27</v>
       </c>
@@ -10708,8 +11347,11 @@
       <c r="J309">
         <v>1827</v>
       </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>27</v>
       </c>
@@ -10740,8 +11382,11 @@
       <c r="J310">
         <v>3088</v>
       </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>27</v>
       </c>
@@ -10772,8 +11417,11 @@
       <c r="J311">
         <v>3376</v>
       </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>27</v>
       </c>
@@ -10804,8 +11452,11 @@
       <c r="J312">
         <v>4345</v>
       </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K312">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>27</v>
       </c>
@@ -10836,8 +11487,11 @@
       <c r="J313">
         <v>1626</v>
       </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>27</v>
       </c>
@@ -10868,8 +11522,11 @@
       <c r="J314">
         <v>2472</v>
       </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>27</v>
       </c>
@@ -10900,8 +11557,11 @@
       <c r="J315">
         <v>5215</v>
       </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>27</v>
       </c>
@@ -10932,8 +11592,11 @@
       <c r="J316">
         <v>2995</v>
       </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>27</v>
       </c>
@@ -10964,8 +11627,11 @@
       <c r="J317">
         <v>2228</v>
       </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>27</v>
       </c>
@@ -10996,8 +11662,11 @@
       <c r="J318">
         <v>781</v>
       </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>28</v>
       </c>
@@ -11028,8 +11697,11 @@
       <c r="J319">
         <v>1597</v>
       </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>28</v>
       </c>
@@ -11060,8 +11732,11 @@
       <c r="J320">
         <v>4066</v>
       </c>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>28</v>
       </c>
@@ -11092,8 +11767,11 @@
       <c r="J321">
         <v>3003</v>
       </c>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>28</v>
       </c>
@@ -11124,8 +11802,11 @@
       <c r="J322">
         <v>3200</v>
       </c>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>28</v>
       </c>
@@ -11156,8 +11837,11 @@
       <c r="J323">
         <v>1388</v>
       </c>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>28</v>
       </c>
@@ -11188,8 +11872,11 @@
       <c r="J324">
         <v>3087</v>
       </c>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>28</v>
       </c>
@@ -11220,8 +11907,11 @@
       <c r="J325">
         <v>2011</v>
       </c>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>28</v>
       </c>
@@ -11252,8 +11942,11 @@
       <c r="J326">
         <v>3821</v>
       </c>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>28</v>
       </c>
@@ -11284,8 +11977,11 @@
       <c r="J327">
         <v>3500</v>
       </c>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>28</v>
       </c>
@@ -11316,8 +12012,11 @@
       <c r="J328">
         <v>531</v>
       </c>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>28</v>
       </c>
@@ -11348,8 +12047,11 @@
       <c r="J329">
         <v>1008</v>
       </c>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>28</v>
       </c>
@@ -11380,8 +12082,11 @@
       <c r="J330">
         <v>3389</v>
       </c>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>28</v>
       </c>
@@ -11412,8 +12117,11 @@
       <c r="J331">
         <v>4459</v>
       </c>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>28</v>
       </c>
@@ -11444,8 +12152,11 @@
       <c r="J332">
         <v>2646</v>
       </c>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>28</v>
       </c>
@@ -11476,8 +12187,11 @@
       <c r="J333">
         <v>3724</v>
       </c>
-    </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>28</v>
       </c>
@@ -11508,8 +12222,11 @@
       <c r="J334">
         <v>3903</v>
       </c>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>28</v>
       </c>
@@ -11540,8 +12257,11 @@
       <c r="J335">
         <v>4430</v>
       </c>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>28</v>
       </c>
@@ -11572,8 +12292,11 @@
       <c r="J336">
         <v>5166</v>
       </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>28</v>
       </c>
@@ -11604,8 +12327,11 @@
       <c r="J337">
         <v>2208</v>
       </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>28</v>
       </c>
@@ -11636,8 +12362,11 @@
       <c r="J338">
         <v>816</v>
       </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>29</v>
       </c>
@@ -11668,8 +12397,11 @@
       <c r="J339">
         <v>2843</v>
       </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>29</v>
       </c>
@@ -11700,8 +12432,11 @@
       <c r="J340">
         <v>2210</v>
       </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>29</v>
       </c>
@@ -11732,8 +12467,11 @@
       <c r="J341">
         <v>1534</v>
       </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>29</v>
       </c>
@@ -11764,8 +12502,11 @@
       <c r="J342">
         <v>1404</v>
       </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>29</v>
       </c>
@@ -11796,8 +12537,11 @@
       <c r="J343">
         <v>977</v>
       </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>29</v>
       </c>
@@ -11828,8 +12572,11 @@
       <c r="J344">
         <v>3120</v>
       </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>29</v>
       </c>
@@ -11860,8 +12607,11 @@
       <c r="J345">
         <v>3557</v>
       </c>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>29</v>
       </c>
@@ -11892,8 +12642,11 @@
       <c r="J346">
         <v>4628</v>
       </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>29</v>
       </c>
@@ -11924,8 +12677,11 @@
       <c r="J347">
         <v>1488</v>
       </c>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>29</v>
       </c>
@@ -11956,8 +12712,11 @@
       <c r="J348">
         <v>4671</v>
       </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>29</v>
       </c>
@@ -11988,8 +12747,11 @@
       <c r="J349">
         <v>2052</v>
       </c>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>29</v>
       </c>
@@ -12020,8 +12782,11 @@
       <c r="J350">
         <v>2023</v>
       </c>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>29</v>
       </c>
@@ -12052,8 +12817,11 @@
       <c r="J351">
         <v>2877</v>
       </c>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>29</v>
       </c>
@@ -12084,8 +12852,11 @@
       <c r="J352">
         <v>4572</v>
       </c>
-    </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>29</v>
       </c>
@@ -12116,8 +12887,11 @@
       <c r="J353">
         <v>3260</v>
       </c>
-    </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K353">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>29</v>
       </c>
@@ -12148,8 +12922,11 @@
       <c r="J354">
         <v>4375</v>
       </c>
-    </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>29</v>
       </c>
@@ -12180,8 +12957,11 @@
       <c r="J355">
         <v>3561</v>
       </c>
-    </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>29</v>
       </c>
@@ -12212,8 +12992,11 @@
       <c r="J356">
         <v>1181</v>
       </c>
-    </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>29</v>
       </c>
@@ -12244,8 +13027,11 @@
       <c r="J357">
         <v>699</v>
       </c>
-    </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>30</v>
       </c>
@@ -12276,8 +13062,11 @@
       <c r="J358">
         <v>1149</v>
       </c>
-    </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>30</v>
       </c>
@@ -12308,8 +13097,11 @@
       <c r="J359">
         <v>1280</v>
       </c>
-    </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>30</v>
       </c>
@@ -12340,8 +13132,11 @@
       <c r="J360">
         <v>1785</v>
       </c>
-    </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>30</v>
       </c>
@@ -12372,8 +13167,11 @@
       <c r="J361">
         <v>601</v>
       </c>
-    </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>30</v>
       </c>
@@ -12404,8 +13202,11 @@
       <c r="J362">
         <v>2477</v>
       </c>
-    </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>30</v>
       </c>
@@ -12436,8 +13237,11 @@
       <c r="J363">
         <v>2526</v>
       </c>
-    </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>30</v>
       </c>
@@ -12468,8 +13272,11 @@
       <c r="J364">
         <v>2556</v>
       </c>
-    </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>30</v>
       </c>
@@ -12500,8 +13307,11 @@
       <c r="J365">
         <v>3743</v>
       </c>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>30</v>
       </c>
@@ -12532,8 +13342,11 @@
       <c r="J366">
         <v>2733</v>
       </c>
-    </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>30</v>
       </c>
@@ -12564,8 +13377,11 @@
       <c r="J367">
         <v>4070</v>
       </c>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>30</v>
       </c>
@@ -12596,8 +13412,11 @@
       <c r="J368">
         <v>4660</v>
       </c>
-    </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K368">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>30</v>
       </c>
@@ -12628,8 +13447,11 @@
       <c r="J369">
         <v>2109</v>
       </c>
-    </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>30</v>
       </c>
@@ -12660,8 +13482,11 @@
       <c r="J370">
         <v>3441</v>
       </c>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>30</v>
       </c>
@@ -12692,8 +13517,11 @@
       <c r="J371">
         <v>2416</v>
       </c>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>30</v>
       </c>
@@ -12724,8 +13552,11 @@
       <c r="J372">
         <v>3418</v>
       </c>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K372">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>30</v>
       </c>
@@ -12756,8 +13587,11 @@
       <c r="J373">
         <v>3364</v>
       </c>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>30</v>
       </c>
@@ -12788,8 +13622,11 @@
       <c r="J374">
         <v>4036</v>
       </c>
-    </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>30</v>
       </c>
@@ -12820,8 +13657,11 @@
       <c r="J375">
         <v>1316</v>
       </c>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>30</v>
       </c>
@@ -12852,8 +13692,11 @@
       <c r="J376">
         <v>748</v>
       </c>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>31</v>
       </c>
@@ -12884,8 +13727,11 @@
       <c r="J377">
         <v>2317</v>
       </c>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>31</v>
       </c>
@@ -12916,8 +13762,11 @@
       <c r="J378">
         <v>1878</v>
       </c>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>31</v>
       </c>
@@ -12948,8 +13797,11 @@
       <c r="J379">
         <v>2799</v>
       </c>
-    </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>31</v>
       </c>
@@ -12980,8 +13832,11 @@
       <c r="J380">
         <v>3200</v>
       </c>
-    </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>31</v>
       </c>
@@ -13012,8 +13867,11 @@
       <c r="J381">
         <v>1620</v>
       </c>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>31</v>
       </c>
@@ -13044,8 +13902,11 @@
       <c r="J382">
         <v>1779</v>
       </c>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>31</v>
       </c>
@@ -13076,8 +13937,11 @@
       <c r="J383">
         <v>2680</v>
       </c>
-    </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>31</v>
       </c>
@@ -13108,8 +13972,11 @@
       <c r="J384">
         <v>2677</v>
       </c>
-    </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>31</v>
       </c>
@@ -13140,8 +14007,11 @@
       <c r="J385">
         <v>3755</v>
       </c>
-    </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>31</v>
       </c>
@@ -13172,8 +14042,11 @@
       <c r="J386">
         <v>1765</v>
       </c>
-    </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>31</v>
       </c>
@@ -13204,8 +14077,11 @@
       <c r="J387">
         <v>2392</v>
       </c>
-    </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>31</v>
       </c>
@@ -13236,8 +14112,11 @@
       <c r="J388">
         <v>3340</v>
       </c>
-    </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K388">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>31</v>
       </c>
@@ -13268,8 +14147,11 @@
       <c r="J389">
         <v>5278</v>
       </c>
-    </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>31</v>
       </c>
@@ -13300,8 +14182,11 @@
       <c r="J390">
         <v>3220</v>
       </c>
-    </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>31</v>
       </c>
@@ -13332,8 +14217,11 @@
       <c r="J391">
         <v>2080</v>
       </c>
-    </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>31</v>
       </c>
@@ -13364,8 +14252,11 @@
       <c r="J392">
         <v>3879</v>
       </c>
-    </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K392">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>31</v>
       </c>
@@ -13396,8 +14287,11 @@
       <c r="J393">
         <v>3052</v>
       </c>
-    </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>31</v>
       </c>
@@ -13428,8 +14322,11 @@
       <c r="J394">
         <v>3728</v>
       </c>
-    </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>31</v>
       </c>
@@ -13460,8 +14357,11 @@
       <c r="J395">
         <v>741</v>
       </c>
-    </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>32</v>
       </c>
@@ -13492,8 +14392,11 @@
       <c r="J396">
         <v>1308</v>
       </c>
-    </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>32</v>
       </c>
@@ -13524,8 +14427,11 @@
       <c r="J397">
         <v>2917</v>
       </c>
-    </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>32</v>
       </c>
@@ -13556,8 +14462,11 @@
       <c r="J398">
         <v>1474</v>
       </c>
-    </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>32</v>
       </c>
@@ -13588,8 +14497,11 @@
       <c r="J399">
         <v>2149</v>
       </c>
-    </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>32</v>
       </c>
@@ -13620,8 +14532,11 @@
       <c r="J400">
         <v>2977</v>
       </c>
-    </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>32</v>
       </c>
@@ -13652,8 +14567,11 @@
       <c r="J401">
         <v>2744</v>
       </c>
-    </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>32</v>
       </c>
@@ -13684,8 +14602,11 @@
       <c r="J402">
         <v>1663</v>
       </c>
-    </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>32</v>
       </c>
@@ -13716,8 +14637,11 @@
       <c r="J403">
         <v>3080</v>
       </c>
-    </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>32</v>
       </c>
@@ -13748,8 +14672,11 @@
       <c r="J404">
         <v>2432</v>
       </c>
-    </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>32</v>
       </c>
@@ -13780,8 +14707,11 @@
       <c r="J405">
         <v>1070</v>
       </c>
-    </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>32</v>
       </c>
@@ -13812,8 +14742,11 @@
       <c r="J406">
         <v>3236</v>
       </c>
-    </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>32</v>
       </c>
@@ -13844,8 +14777,11 @@
       <c r="J407">
         <v>4198</v>
       </c>
-    </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>32</v>
       </c>
@@ -13876,8 +14812,11 @@
       <c r="J408">
         <v>2976</v>
       </c>
-    </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>32</v>
       </c>
@@ -13908,8 +14847,11 @@
       <c r="J409">
         <v>4908</v>
       </c>
-    </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>32</v>
       </c>
@@ -13940,8 +14882,11 @@
       <c r="J410">
         <v>2761</v>
       </c>
-    </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>32</v>
       </c>
@@ -13972,8 +14917,11 @@
       <c r="J411">
         <v>2384</v>
       </c>
-    </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>32</v>
       </c>
@@ -14004,8 +14952,11 @@
       <c r="J412">
         <v>2319</v>
       </c>
-    </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>32</v>
       </c>
@@ -14036,8 +14987,11 @@
       <c r="J413">
         <v>4447</v>
       </c>
-    </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>33</v>
       </c>
@@ -14068,8 +15022,11 @@
       <c r="J414">
         <v>2597</v>
       </c>
-    </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>33</v>
       </c>
@@ -14100,8 +15057,11 @@
       <c r="J415">
         <v>2613</v>
       </c>
-    </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>33</v>
       </c>
@@ -14132,8 +15092,11 @@
       <c r="J416">
         <v>2141</v>
       </c>
-    </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>33</v>
       </c>
@@ -14164,8 +15127,11 @@
       <c r="J417">
         <v>816</v>
       </c>
-    </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>33</v>
       </c>
@@ -14196,8 +15162,11 @@
       <c r="J418">
         <v>2908</v>
       </c>
-    </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>33</v>
       </c>
@@ -14228,8 +15197,11 @@
       <c r="J419">
         <v>3318</v>
       </c>
-    </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K419">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>33</v>
       </c>
@@ -14260,8 +15232,11 @@
       <c r="J420">
         <v>1386</v>
       </c>
-    </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>33</v>
       </c>
@@ -14292,8 +15267,11 @@
       <c r="J421">
         <v>2044</v>
       </c>
-    </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>33</v>
       </c>
@@ -14324,8 +15302,11 @@
       <c r="J422">
         <v>1520</v>
       </c>
-    </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>33</v>
       </c>
@@ -14356,8 +15337,11 @@
       <c r="J423">
         <v>5421</v>
       </c>
-    </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K423">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>33</v>
       </c>
@@ -14388,8 +15372,11 @@
       <c r="J424">
         <v>2174</v>
       </c>
-    </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>33</v>
       </c>
@@ -14420,8 +15407,11 @@
       <c r="J425">
         <v>2673</v>
       </c>
-    </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K425">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>33</v>
       </c>
@@ -14452,8 +15442,11 @@
       <c r="J426">
         <v>3941</v>
       </c>
-    </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>33</v>
       </c>
@@ -14484,8 +15477,11 @@
       <c r="J427">
         <v>3740</v>
       </c>
-    </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>33</v>
       </c>
@@ -14516,8 +15512,11 @@
       <c r="J428">
         <v>5207</v>
       </c>
-    </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K428">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>33</v>
       </c>
@@ -14548,8 +15547,11 @@
       <c r="J429">
         <v>3218</v>
       </c>
-    </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>33</v>
       </c>
@@ -14580,8 +15582,11 @@
       <c r="J430">
         <v>2332</v>
       </c>
-    </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>33</v>
       </c>
@@ -14612,8 +15617,11 @@
       <c r="J431">
         <v>3812</v>
       </c>
-    </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K431">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>33</v>
       </c>
@@ -14644,8 +15652,11 @@
       <c r="J432">
         <v>726</v>
       </c>
-    </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>34</v>
       </c>
@@ -14676,8 +15687,11 @@
       <c r="J433">
         <v>2168</v>
       </c>
-    </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>34</v>
       </c>
@@ -14708,8 +15722,11 @@
       <c r="J434">
         <v>2983</v>
       </c>
-    </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>34</v>
       </c>
@@ -14740,8 +15757,11 @@
       <c r="J435">
         <v>3196</v>
       </c>
-    </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K435">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>34</v>
       </c>
@@ -14772,8 +15792,11 @@
       <c r="J436">
         <v>2467</v>
       </c>
-    </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>34</v>
       </c>
@@ -14804,8 +15827,11 @@
       <c r="J437">
         <v>2824</v>
       </c>
-    </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>34</v>
       </c>
@@ -14836,8 +15862,11 @@
       <c r="J438">
         <v>2616</v>
       </c>
-    </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>34</v>
       </c>
@@ -14868,8 +15897,11 @@
       <c r="J439">
         <v>1279</v>
       </c>
-    </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K439">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>34</v>
       </c>
@@ -14900,8 +15932,11 @@
       <c r="J440">
         <v>2780</v>
       </c>
-    </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>34</v>
       </c>
@@ -14932,8 +15967,11 @@
       <c r="J441">
         <v>3899</v>
       </c>
-    </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>34</v>
       </c>
@@ -14964,8 +16002,11 @@
       <c r="J442">
         <v>2351</v>
       </c>
-    </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>34</v>
       </c>
@@ -14996,8 +16037,11 @@
       <c r="J443">
         <v>2996</v>
       </c>
-    </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>34</v>
       </c>
@@ -15028,8 +16072,11 @@
       <c r="J444">
         <v>3716</v>
       </c>
-    </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>34</v>
       </c>
@@ -15060,8 +16107,11 @@
       <c r="J445">
         <v>5575</v>
       </c>
-    </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>34</v>
       </c>
@@ -15092,8 +16142,11 @@
       <c r="J446">
         <v>3877</v>
       </c>
-    </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>34</v>
       </c>
@@ -15124,8 +16177,11 @@
       <c r="J447">
         <v>1514</v>
       </c>
-    </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>34</v>
       </c>
@@ -15156,8 +16212,11 @@
       <c r="J448">
         <v>3460</v>
       </c>
-    </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>34</v>
       </c>
@@ -15188,8 +16247,11 @@
       <c r="J449">
         <v>2550</v>
       </c>
-    </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>34</v>
       </c>
@@ -15220,8 +16282,11 @@
       <c r="J450">
         <v>5036</v>
       </c>
-    </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>34</v>
       </c>
@@ -15252,8 +16317,11 @@
       <c r="J451">
         <v>847</v>
       </c>
-    </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>35</v>
       </c>
@@ -15284,8 +16352,11 @@
       <c r="J452">
         <v>588</v>
       </c>
-    </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>35</v>
       </c>
@@ -15316,8 +16387,11 @@
       <c r="J453">
         <v>3623</v>
       </c>
-    </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>35</v>
       </c>
@@ -15348,8 +16422,11 @@
       <c r="J454">
         <v>1835</v>
       </c>
-    </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>35</v>
       </c>
@@ -15380,8 +16457,11 @@
       <c r="J455">
         <v>2909</v>
       </c>
-    </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K455">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>35</v>
       </c>
@@ -15412,8 +16492,11 @@
       <c r="J456">
         <v>2704</v>
       </c>
-    </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K456">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>35</v>
       </c>
@@ -15444,8 +16527,11 @@
       <c r="J457">
         <v>3034</v>
       </c>
-    </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>35</v>
       </c>
@@ -15476,8 +16562,11 @@
       <c r="J458">
         <v>2593</v>
       </c>
-    </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K458">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>35</v>
       </c>
@@ -15508,8 +16597,11 @@
       <c r="J459">
         <v>2041</v>
       </c>
-    </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>35</v>
       </c>
@@ -15540,8 +16632,11 @@
       <c r="J460">
         <v>1568</v>
       </c>
-    </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>35</v>
       </c>
@@ -15572,8 +16667,11 @@
       <c r="J461">
         <v>3878</v>
       </c>
-    </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>35</v>
       </c>
@@ -15604,8 +16702,11 @@
       <c r="J462">
         <v>2681</v>
       </c>
-    </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>35</v>
       </c>
@@ -15636,8 +16737,11 @@
       <c r="J463">
         <v>1938</v>
       </c>
-    </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>35</v>
       </c>
@@ -15668,8 +16772,11 @@
       <c r="J464">
         <v>3723</v>
       </c>
-    </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K464">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>35</v>
       </c>
@@ -15700,8 +16807,11 @@
       <c r="J465">
         <v>3549</v>
       </c>
-    </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>35</v>
       </c>
@@ -15732,8 +16842,11 @@
       <c r="J466">
         <v>4022</v>
       </c>
-    </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>35</v>
       </c>
@@ -15764,8 +16877,11 @@
       <c r="J467">
         <v>3476</v>
       </c>
-    </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>35</v>
       </c>
@@ -15796,8 +16912,11 @@
       <c r="J468">
         <v>2484</v>
       </c>
-    </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K468">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>35</v>
       </c>
@@ -15828,8 +16947,11 @@
       <c r="J469">
         <v>3817</v>
       </c>
-    </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>35</v>
       </c>
@@ -15860,8 +16982,11 @@
       <c r="J470">
         <v>913</v>
       </c>
-    </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>36</v>
       </c>
@@ -15892,8 +17017,11 @@
       <c r="J471">
         <v>2826</v>
       </c>
-    </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>36</v>
       </c>
@@ -15924,8 +17052,11 @@
       <c r="J472">
         <v>3160</v>
       </c>
-    </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>36</v>
       </c>
@@ -15956,8 +17087,11 @@
       <c r="J473">
         <v>3300</v>
       </c>
-    </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>36</v>
       </c>
@@ -15988,8 +17122,11 @@
       <c r="J474">
         <v>3178</v>
       </c>
-    </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>36</v>
       </c>
@@ -16020,8 +17157,11 @@
       <c r="J475">
         <v>1399</v>
       </c>
-    </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>36</v>
       </c>
@@ -16052,8 +17192,11 @@
       <c r="J476">
         <v>2535</v>
       </c>
-    </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>36</v>
       </c>
@@ -16084,8 +17227,11 @@
       <c r="J477">
         <v>2112</v>
       </c>
-    </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>36</v>
       </c>
@@ -16116,8 +17262,11 @@
       <c r="J478">
         <v>4399</v>
       </c>
-    </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>36</v>
       </c>
@@ -16148,8 +17297,11 @@
       <c r="J479">
         <v>1306</v>
       </c>
-    </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>36</v>
       </c>
@@ -16180,8 +17332,11 @@
       <c r="J480">
         <v>3755</v>
       </c>
-    </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>36</v>
       </c>
@@ -16212,8 +17367,11 @@
       <c r="J481">
         <v>3021</v>
       </c>
-    </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>36</v>
       </c>
@@ -16244,8 +17402,11 @@
       <c r="J482">
         <v>3334</v>
       </c>
-    </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>36</v>
       </c>
@@ -16276,8 +17437,11 @@
       <c r="J483">
         <v>3314</v>
       </c>
-    </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>36</v>
       </c>
@@ -16308,8 +17472,11 @@
       <c r="J484">
         <v>4586</v>
       </c>
-    </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>36</v>
       </c>
@@ -16340,8 +17507,11 @@
       <c r="J485">
         <v>3574</v>
       </c>
-    </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>36</v>
       </c>
@@ -16372,8 +17542,11 @@
       <c r="J486">
         <v>1040</v>
       </c>
-    </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>36</v>
       </c>
@@ -16404,8 +17577,11 @@
       <c r="J487">
         <v>3183</v>
       </c>
-    </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>36</v>
       </c>
@@ -16436,8 +17612,11 @@
       <c r="J488">
         <v>3429</v>
       </c>
-    </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>36</v>
       </c>
@@ -16468,8 +17647,11 @@
       <c r="J489">
         <v>603</v>
       </c>
-    </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>37</v>
       </c>
@@ -16500,8 +17682,11 @@
       <c r="J490">
         <v>3238</v>
       </c>
-    </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>37</v>
       </c>
@@ -16532,8 +17717,11 @@
       <c r="J491">
         <v>1730</v>
       </c>
-    </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>37</v>
       </c>
@@ -16564,8 +17752,11 @@
       <c r="J492">
         <v>1233</v>
       </c>
-    </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>37</v>
       </c>
@@ -16596,8 +17787,11 @@
       <c r="J493">
         <v>3764</v>
       </c>
-    </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>37</v>
       </c>
@@ -16628,8 +17822,11 @@
       <c r="J494">
         <v>3294</v>
       </c>
-    </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>37</v>
       </c>
@@ -16660,8 +17857,11 @@
       <c r="J495">
         <v>2842</v>
       </c>
-    </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>37</v>
       </c>
@@ -16692,8 +17892,11 @@
       <c r="J496">
         <v>2291</v>
       </c>
-    </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>37</v>
       </c>
@@ -16724,8 +17927,11 @@
       <c r="J497">
         <v>3300</v>
       </c>
-    </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>37</v>
       </c>
@@ -16756,8 +17962,11 @@
       <c r="J498">
         <v>3168</v>
       </c>
-    </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>37</v>
       </c>
@@ -16788,8 +17997,11 @@
       <c r="J499">
         <v>2072</v>
       </c>
-    </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>37</v>
       </c>
@@ -16820,8 +18032,11 @@
       <c r="J500">
         <v>4179</v>
       </c>
-    </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>37</v>
       </c>
@@ -16852,8 +18067,11 @@
       <c r="J501">
         <v>2432</v>
       </c>
-    </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>37</v>
       </c>
@@ -16884,8 +18102,11 @@
       <c r="J502">
         <v>4114</v>
       </c>
-    </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>37</v>
       </c>
@@ -16916,8 +18137,11 @@
       <c r="J503">
         <v>4114</v>
       </c>
-    </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>37</v>
       </c>
@@ -16948,8 +18172,11 @@
       <c r="J504">
         <v>2395</v>
       </c>
-    </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>37</v>
       </c>
@@ -16980,8 +18207,11 @@
       <c r="J505">
         <v>3689</v>
       </c>
-    </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>37</v>
       </c>
@@ -17012,8 +18242,11 @@
       <c r="J506">
         <v>1771</v>
       </c>
-    </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>37</v>
       </c>
@@ -17044,8 +18277,11 @@
       <c r="J507">
         <v>4559</v>
       </c>
-    </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>37</v>
       </c>
@@ -17076,8 +18312,11 @@
       <c r="J508">
         <v>763</v>
       </c>
-    </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>38</v>
       </c>
@@ -17108,8 +18347,11 @@
       <c r="J509">
         <v>2975</v>
       </c>
-    </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>38</v>
       </c>
@@ -17140,8 +18382,11 @@
       <c r="J510">
         <v>2435</v>
       </c>
-    </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>38</v>
       </c>
@@ -17172,8 +18417,11 @@
       <c r="J511">
         <v>2779</v>
       </c>
-    </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>38</v>
       </c>
@@ -17204,8 +18452,11 @@
       <c r="J512">
         <v>1160</v>
       </c>
-    </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>38</v>
       </c>
@@ -17236,8 +18487,11 @@
       <c r="J513">
         <v>3407</v>
       </c>
-    </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>38</v>
       </c>
@@ -17268,8 +18522,11 @@
       <c r="J514">
         <v>3020</v>
       </c>
-    </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>38</v>
       </c>
@@ -17300,8 +18557,11 @@
       <c r="J515">
         <v>2657</v>
       </c>
-    </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>38</v>
       </c>
@@ -17332,8 +18592,11 @@
       <c r="J516">
         <v>3021</v>
       </c>
-    </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>38</v>
       </c>
@@ -17364,8 +18627,11 @@
       <c r="J517">
         <v>1163</v>
       </c>
-    </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>38</v>
       </c>
@@ -17396,8 +18662,11 @@
       <c r="J518">
         <v>2302</v>
       </c>
-    </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>38</v>
       </c>
@@ -17428,8 +18697,11 @@
       <c r="J519">
         <v>5098</v>
       </c>
-    </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>38</v>
       </c>
@@ -17460,8 +18732,11 @@
       <c r="J520">
         <v>3125</v>
       </c>
-    </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>38</v>
       </c>
@@ -17492,8 +18767,11 @@
       <c r="J521">
         <v>3057</v>
       </c>
-    </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>38</v>
       </c>
@@ -17524,8 +18802,11 @@
       <c r="J522">
         <v>4448</v>
       </c>
-    </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>38</v>
       </c>
@@ -17556,8 +18837,11 @@
       <c r="J523">
         <v>2762</v>
       </c>
-    </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>38</v>
       </c>
@@ -17588,8 +18872,11 @@
       <c r="J524">
         <v>4365</v>
       </c>
-    </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>38</v>
       </c>
@@ -17620,8 +18907,11 @@
       <c r="J525">
         <v>1492</v>
       </c>
-    </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>39</v>
       </c>
@@ -17652,8 +18942,11 @@
       <c r="J526">
         <v>1049</v>
       </c>
-    </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>39</v>
       </c>
@@ -17684,8 +18977,11 @@
       <c r="J527">
         <v>2787</v>
       </c>
-    </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K527">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>39</v>
       </c>
@@ -17716,8 +19012,11 @@
       <c r="J528">
         <v>1534</v>
       </c>
-    </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>39</v>
       </c>
@@ -17748,8 +19047,11 @@
       <c r="J529">
         <v>640</v>
       </c>
-    </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>39</v>
       </c>
@@ -17780,8 +19082,11 @@
       <c r="J530">
         <v>902</v>
       </c>
-    </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>39</v>
       </c>
@@ -17812,8 +19117,11 @@
       <c r="J531">
         <v>3744</v>
       </c>
-    </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K531">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>39</v>
       </c>
@@ -17844,8 +19152,11 @@
       <c r="J532">
         <v>923</v>
       </c>
-    </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>39</v>
       </c>
@@ -17876,8 +19187,11 @@
       <c r="J533">
         <v>4725</v>
       </c>
-    </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>39</v>
       </c>
@@ -17908,8 +19222,11 @@
       <c r="J534">
         <v>2390</v>
       </c>
-    </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>39</v>
       </c>
@@ -17940,8 +19257,11 @@
       <c r="J535">
         <v>2647</v>
       </c>
-    </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>39</v>
       </c>
@@ -17972,8 +19292,11 @@
       <c r="J536">
         <v>2018</v>
       </c>
-    </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>39</v>
       </c>
@@ -18004,8 +19327,11 @@
       <c r="J537">
         <v>1645</v>
       </c>
-    </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>39</v>
       </c>
@@ -18036,8 +19362,11 @@
       <c r="J538">
         <v>3448</v>
       </c>
-    </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>39</v>
       </c>
@@ -18068,8 +19397,11 @@
       <c r="J539">
         <v>3860</v>
       </c>
-    </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>39</v>
       </c>
@@ -18100,8 +19432,11 @@
       <c r="J540">
         <v>2279</v>
       </c>
-    </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>39</v>
       </c>
@@ -18132,8 +19467,11 @@
       <c r="J541">
         <v>4519</v>
       </c>
-    </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>39</v>
       </c>
@@ -18164,8 +19502,11 @@
       <c r="J542">
         <v>4951</v>
       </c>
-    </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>39</v>
       </c>
@@ -18196,8 +19537,11 @@
       <c r="J543">
         <v>3540</v>
       </c>
-    </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>39</v>
       </c>
@@ -18228,8 +19572,11 @@
       <c r="J544">
         <v>4214</v>
       </c>
-    </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>40</v>
       </c>
@@ -18260,8 +19607,11 @@
       <c r="J545">
         <v>518</v>
       </c>
-    </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>40</v>
       </c>
@@ -18292,8 +19642,11 @@
       <c r="J546">
         <v>255</v>
       </c>
-    </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>40</v>
       </c>
@@ -18324,8 +19677,11 @@
       <c r="J547">
         <v>2319</v>
       </c>
-    </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>40</v>
       </c>
@@ -18356,8 +19712,11 @@
       <c r="J548">
         <v>2978</v>
       </c>
-    </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>40</v>
       </c>
@@ -18388,8 +19747,11 @@
       <c r="J549">
         <v>4120</v>
       </c>
-    </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>40</v>
       </c>
@@ -18420,8 +19782,11 @@
       <c r="J550">
         <v>3359</v>
       </c>
-    </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>40</v>
       </c>
@@ -18452,8 +19817,11 @@
       <c r="J551">
         <v>3741</v>
       </c>
-    </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>40</v>
       </c>
@@ -18484,8 +19852,11 @@
       <c r="J552">
         <v>3675</v>
       </c>
-    </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>40</v>
       </c>
@@ -18516,8 +19887,11 @@
       <c r="J553">
         <v>1592</v>
       </c>
-    </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>40</v>
       </c>
@@ -18548,8 +19922,11 @@
       <c r="J554">
         <v>3238</v>
       </c>
-    </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>40</v>
       </c>
@@ -18580,8 +19957,11 @@
       <c r="J555">
         <v>1766</v>
       </c>
-    </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>40</v>
       </c>
@@ -18612,8 +19992,11 @@
       <c r="J556">
         <v>3312</v>
       </c>
-    </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>40</v>
       </c>
@@ -18644,8 +20027,11 @@
       <c r="J557">
         <v>4033</v>
       </c>
-    </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>40</v>
       </c>
@@ -18676,8 +20062,11 @@
       <c r="J558">
         <v>1076</v>
       </c>
-    </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>40</v>
       </c>
@@ -18708,8 +20097,11 @@
       <c r="J559">
         <v>2755</v>
       </c>
-    </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K559">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>40</v>
       </c>
@@ -18740,8 +20132,11 @@
       <c r="J560">
         <v>3680</v>
       </c>
-    </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>40</v>
       </c>
@@ -18772,8 +20167,11 @@
       <c r="J561">
         <v>2278</v>
       </c>
-    </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>40</v>
       </c>
@@ -18804,8 +20202,11 @@
       <c r="J562">
         <v>3977</v>
       </c>
-    </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>40</v>
       </c>
@@ -18835,6 +20236,9 @@
       </c>
       <c r="J563">
         <v>773</v>
+      </c>
+      <c r="K563">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
